--- a/DesignDocs/Design/발주 문서/AI구성.xlsx
+++ b/DesignDocs/Design/발주 문서/AI구성.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChunJ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\발주 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>AI구조</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -45,11 +45,6 @@
   <si>
     <t>PC의 인식이 풀림
 PC의 사망</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">사용가능한 스킬이 있을경우
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -120,6 +115,27 @@
   </si>
   <si>
     <t>: 기획자 목을 딴다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용가능한 스킬이 있을경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC의 인식이 풀림
+PC의 사망</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle: Idle과 배회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move: 따라간다. 언제까지?(melee: 인헨서레인지까지, Range, bonce: 스타일레인지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoSkill: 스킬 검색, 스킬 사용(range, Bounce는 4번으로 가지 않는다.)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -544,25 +560,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -570,139 +586,139 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
         <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -710,84 +726,99 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
         <v>21</v>
-      </c>
-      <c r="B30" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
